--- a/src/main/webapp/WEB-INF/book/Leave Application.xlsx
+++ b/src/main/webapp/WEB-INF/book/Leave Application.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27106"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/tutorial/src/main/webapp/WEB-INF/book/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53236208-6E87-E64C-A11A-7A4D7B839FB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
+    <workbookView xWindow="3040" yWindow="1040" windowWidth="33600" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leave" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -77,6 +78,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -90,21 +92,25 @@
       <sz val="12"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -419,6 +425,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,15 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -472,6 +478,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -517,6 +526,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -548,9 +560,7 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Helvetica"/>
-                  <a:ea typeface="Helvetica"/>
-                  <a:cs typeface="Helvetica"/>
+                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>Submit</a:t>
               </a:r>
@@ -584,6 +594,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -615,9 +628,7 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Helvetica"/>
-                  <a:ea typeface="Helvetica"/>
-                  <a:cs typeface="Helvetica"/>
+                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>Approve</a:t>
               </a:r>
@@ -651,6 +662,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -682,9 +696,7 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Helvetica"/>
-                  <a:ea typeface="Helvetica"/>
-                  <a:cs typeface="Helvetica"/>
+                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>Reject</a:t>
               </a:r>
@@ -718,6 +730,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -749,9 +764,7 @@
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="Helvetica"/>
-                  <a:ea typeface="Helvetica"/>
-                  <a:cs typeface="Helvetica"/>
+                  <a:latin typeface="Helvetica" pitchFamily="2" charset="0"/>
                 </a:rPr>
                 <a:t>Cancel</a:t>
               </a:r>
@@ -1028,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
@@ -1067,13 +1080,13 @@
     </row>
     <row r="3" spans="2:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1082,7 +1095,7 @@
     </row>
     <row r="4" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -1090,14 +1103,14 @@
       </c>
       <c r="E4" s="5">
         <f ca="1">TODAY()</f>
-        <v>43378</v>
+        <v>43389</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="7">
         <f ca="1">TODAY()</f>
-        <v>43378</v>
+        <v>43389</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
@@ -1107,7 +1120,7 @@
     </row>
     <row r="5" spans="2:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="22"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1130,10 +1143,10 @@
       <c r="C6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="2"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1145,12 +1158,12 @@
       <c r="C7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="2"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1283,7 +1296,7 @@
       <c r="G19" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="C3:G3"/>
@@ -1321,7 +1334,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -1344,7 +1356,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -1367,7 +1378,6 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -1390,11 +1400,9 @@
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
 </worksheet>
 </file>